--- a/data kalimat durusul lughoh 2.xlsx
+++ b/data kalimat durusul lughoh 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\trial\barab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\trial\githurtfmplizio\rtfmpliz.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{120C85C5-2AB4-40E4-A2FB-B2A7841E3D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABE215-9868-466E-B7FA-E93772C49281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{998D3561-EEEE-4E4F-800B-72A3D3D90E3C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -90,6 +90,144 @@
   </si>
   <si>
     <t>ya, aku sudah pergi</t>
+  </si>
+  <si>
+    <t>dimana kalian (lk) pergi setelah pelajaran wahai anak2 ku ?</t>
+  </si>
+  <si>
+    <t>kami pergi ke tempat bermain</t>
+  </si>
+  <si>
+    <t>apakah sepak bola kalian bermain atau bola basket ?</t>
+  </si>
+  <si>
+    <t>hari ini kami bermain sepak bola. Kami bermain bola baske pekan kemarin</t>
+  </si>
+  <si>
+    <t>tidakkah kalian pergi ke perpustakaan hari ini ?</t>
+  </si>
+  <si>
+    <t>benar, kami telah pergi</t>
+  </si>
+  <si>
+    <t>apa (yang) kalian baca disana ?</t>
+  </si>
+  <si>
+    <t>kami telah membaca koran</t>
+  </si>
+  <si>
+    <t>apakah kalian mendegar berita ? Kabar dari radio hari ini ?</t>
+  </si>
+  <si>
+    <t>dari mana radio yang kalian dengar ?</t>
+  </si>
+  <si>
+    <t>kami mendengar dari 3 radio: dari radio riyadh, dan radio kairo, dan radio london</t>
+  </si>
+  <si>
+    <t>aku telah mendengar bahwasannya bilal sakit dan bahwasanya dia di rumah sakit. Apakah benar ini ?</t>
+  </si>
+  <si>
+    <t>ya, kami mendengar nya</t>
+  </si>
+  <si>
+    <t>ya, ini benar, semoga Allah menyembuhkannya</t>
+  </si>
+  <si>
+    <t>hal</t>
+  </si>
+  <si>
+    <t>aamiin, kapan dia (lk) masuk rumah sakit ?</t>
+  </si>
+  <si>
+    <t>dia (lk) masuk 3 hari yang lalu / sebelumnya (sebelum 3 hari)</t>
+  </si>
+  <si>
+    <t>dimana kitab (tersebut) yang memiliki sampul merah yang (dulu) didalam kamarku ? Apakah kalian )lk melihatnya ?</t>
+  </si>
+  <si>
+    <t>saya mengambilnya semalam dan saya membaca separuh</t>
+  </si>
+  <si>
+    <t>dan dimana majalah (tersebut) yang (dulu) dibawah kitab (tersebut) ini ?</t>
+  </si>
+  <si>
+    <t>apakah ini dia ?</t>
+  </si>
+  <si>
+    <t>tidak, majalah (tersebut) memiliki sampul kuning</t>
+  </si>
+  <si>
+    <t>dia bersamaku, aku mengambilnya hari ini</t>
+  </si>
+  <si>
+    <t>bell telah berbunyi maka marwan berdiri dan sedang membuka pintu (tersebut) dan saudara (pr) nya (sedang ) masuk</t>
+  </si>
+  <si>
+    <t>assalaamu 'alaikum warohmatullohi wabarokaatuh</t>
+  </si>
+  <si>
+    <t>wa 'alaikum salaam warohmatullohi wabarokaatuh</t>
+  </si>
+  <si>
+    <t>dimana kalian (pr) (telah) pergi wahai anak-anaku (pr)</t>
+  </si>
+  <si>
+    <t>kami pergi untuk mengunjungi kepala sekolah (pr, tersebut)</t>
+  </si>
+  <si>
+    <t>apakah kalian (pr) berjalan atau kalian (pr) pergi dengan mobil ?</t>
+  </si>
+  <si>
+    <t>kami berjalan dikarenakan rumahnya (pr) dekan dari sekolah kami. Dia diantara masjid dan sekolah</t>
+  </si>
+  <si>
+    <t>apakah kalian (pr) menjumpainya (pr) di dalam rumah (tersebut)</t>
+  </si>
+  <si>
+    <t>ya, kami menjumpainya (pr). Kami duduk bersamanya (pr) 1/3 jam dan kami keluar dari rumahnya (pr) di jam (ke) 5</t>
+  </si>
+  <si>
+    <t>aku meletakkannya dibawah tangga (tsb) pagi (subuh) ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apakah kalian (pr) melihat sapu (tsb) wahai anak-anak (pr) ? Aku mencari nya berkali-kali dan aku tidak menemukannya </t>
+  </si>
+  <si>
+    <t>wahai ibuku, apakah didalam kulkas ada air dingin ? Kamu haus</t>
+  </si>
+  <si>
+    <t>berbahagialah, didalamnya ada air dingin, dan jus jeruk</t>
+  </si>
+  <si>
+    <t>jawablah dari pertanyaan-pertanyaan berikut</t>
+  </si>
+  <si>
+    <t>dimana anak-anak (lk) setelah pelajaran ?</t>
+  </si>
+  <si>
+    <t>kapan mereka (lk) (telah) membaca didalam perpustakaan ?</t>
+  </si>
+  <si>
+    <t>dari radio mana mereka (lk) mendengar kabar ?</t>
+  </si>
+  <si>
+    <t>siapa yang telah mengambil kitab (tsb)</t>
+  </si>
+  <si>
+    <t>siapa yang (telah) mengambil majalah (tsb) ?</t>
+  </si>
+  <si>
+    <t>dimana anak-anak (pr) (telah) pergi ?</t>
+  </si>
+  <si>
+    <t>berapa menit mereka (pr) duduk bersama kepala sekolah (pr) ?</t>
+  </si>
+  <si>
+    <t>dimana rumah kepala sekolah (pr) ?</t>
+  </si>
+  <si>
+    <t>dimana suadu (pr) meletakkan sapu (tsb) ?</t>
   </si>
 </sst>
 </file>
@@ -461,18 +599,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D26F8-1865-41B3-B896-C0550BDC1135}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,10 +624,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,11 +643,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -519,11 +660,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -536,11 +677,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -553,11 +694,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -570,11 +711,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -587,11 +728,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -604,11 +745,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -621,11 +762,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -638,11 +779,11 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -655,11 +796,11 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -672,11 +813,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -689,11 +830,11 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -706,8 +847,908 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>48</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>48</v>
+      </c>
+      <c r="F53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>48</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>48</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>48</v>
+      </c>
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>48</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data kalimat durusul lughoh 2.xlsx
+++ b/data kalimat durusul lughoh 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\trial\githurtfmplizio\rtfmpliz.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABE215-9868-466E-B7FA-E93772C49281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91EAB4-67CE-4962-8B1E-7369165E7E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{998D3561-EEEE-4E4F-800B-72A3D3D90E3C}"/>
+    <workbookView xWindow="7410" yWindow="0" windowWidth="13185" windowHeight="10905" xr2:uid="{998D3561-EEEE-4E4F-800B-72A3D3D90E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -228,6 +228,201 @@
   </si>
   <si>
     <t>dimana suadu (pr) meletakkan sapu (tsb) ?</t>
+  </si>
+  <si>
+    <t>letakkan tanda ini (v) didepan kalmat yang benar dan tanda ini (x) di depan kalimat yang tidak benar</t>
+  </si>
+  <si>
+    <t>anak-anak (lk) (telah) bermain sepak bola (di) pekan kemarin</t>
+  </si>
+  <si>
+    <t>bersamaku (aku punya) kitab yang memiliki sampul merah</t>
+  </si>
+  <si>
+    <t>dimana kitab (tsb) yang memiliki sampul merah ?</t>
+  </si>
+  <si>
+    <t>milik siapa rumat itu yang memiliki pintu hijau ?</t>
+  </si>
+  <si>
+    <t>laki laki (tsb) itu memiliki tas yang indah adalah murid yang terkenal</t>
+  </si>
+  <si>
+    <t>siapa anak (lk) itu yang berpakaian merah ?</t>
+  </si>
+  <si>
+    <t>pemuda itu yang memiliki rambut yang panjang (adalah) murid (yang) baru</t>
+  </si>
+  <si>
+    <t>dimana murid (tsb) yang baru ? Apakah kalian melihatnya ?</t>
+  </si>
+  <si>
+    <t>dimana ular (tsb) ? Apakah kalian membunuhnya ?</t>
+  </si>
+  <si>
+    <t>ini (adalah) pelajaran yang mudah, apakah kalian memahaminya ?</t>
+  </si>
+  <si>
+    <t>dimana guru-guru (tsb) ? Apakah kalian melihat mereka ?</t>
+  </si>
+  <si>
+    <t>apakah kalian (lk) (telah) membaca kitab ini ?</t>
+  </si>
+  <si>
+    <t>apakah kalian (lk) telah melihat hamid ?</t>
+  </si>
+  <si>
+    <t>apakah milik kalian kitab ini ?</t>
+  </si>
+  <si>
+    <t>aminah (telah) keluar</t>
+  </si>
+  <si>
+    <t>siapa anak laki-laki ini ?</t>
+  </si>
+  <si>
+    <t>kalian (lk) telah makan semangka</t>
+  </si>
+  <si>
+    <t>kalian (lk) telah duduk di dalam kelas</t>
+  </si>
+  <si>
+    <t>kalian (lk) telah masuk ke dalam masjid</t>
+  </si>
+  <si>
+    <t>kalian (lk) telah memahami pelajaran (tsb)</t>
+  </si>
+  <si>
+    <t>kalian (lk) telah memahami pelajaran fiqh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalian (tlh) telah mendengar adzan </t>
+  </si>
+  <si>
+    <t>apa (yang) kalian (lk) makan ?</t>
+  </si>
+  <si>
+    <t>apakah milik kalian (lk) mobil ini ?</t>
+  </si>
+  <si>
+    <t>apakah milik kalian kitab (tsb)</t>
+  </si>
+  <si>
+    <t>siapa laki-laki ini ?</t>
+  </si>
+  <si>
+    <t>siapa pemuda (tsb) ?</t>
+  </si>
+  <si>
+    <t>murid (pr)  (telah) menulis pelajaran</t>
+  </si>
+  <si>
+    <t>dimana kepala sekolah (pr) ? Dia (telah) keluar sekarang</t>
+  </si>
+  <si>
+    <t>milik siapa buku tulis yang memiliki sampul indah ?</t>
+  </si>
+  <si>
+    <t>laki-laki itu yang memiliki kacamata (adalah) guru (lk) kami</t>
+  </si>
+  <si>
+    <t>laki-laki itu yang memiliki badan yang tinggi , dia adalah muadzin masjid kami</t>
+  </si>
+  <si>
+    <t>majalah (tsb) yang memiliki gambar )adalah_ berwarna</t>
+  </si>
+  <si>
+    <t>sepeda ini yang memiliki rada tifa adalah milik anaku yang kecil</t>
+  </si>
+  <si>
+    <t>masjid itu yang memiliki menara yang tinggi adalah bagus sekali</t>
+  </si>
+  <si>
+    <t>apakah kalian telah membaca al quran hari ini wahai anak2 (lk) ku ?</t>
+  </si>
+  <si>
+    <t>kapan kalian kembali dari mekah wahai saudara2ku (lk)</t>
+  </si>
+  <si>
+    <t>apakah kalian sudah mencuci wajah kalian (pr) dengan sabun ?</t>
+  </si>
+  <si>
+    <t>dari radio mana kalian mendengar kabar (tsb) wahai saudara2 ku (lk)</t>
+  </si>
+  <si>
+    <t>dari pintu mana kalian masuk masjid wahai saudara2 ku (lk)</t>
+  </si>
+  <si>
+    <t>untuk apa kalian membuka jendela wahai anak-anakku (pr)</t>
+  </si>
+  <si>
+    <t>guru (tsb) didalam kelas - (dulu) guru (tsb) didalam kelas (sebelum) 5 menit yg lalu</t>
+  </si>
+  <si>
+    <t>murid-murid (lk) (tsb) didalam perpustakaan - (dl) murid-murid tsb di dalam perpustakaan (sebelum) setengah jam lalu</t>
+  </si>
+  <si>
+    <t>ibuku didapur - (dl) ibuku didapur (sebelum sedikit) baru saja</t>
+  </si>
+  <si>
+    <t>(dulu) kepala sekolah (tsb) didalam ruangannya (sebelum) sejam yang lalu</t>
+  </si>
+  <si>
+    <t>(dulu) menteri (tsb) di london (sebelum) pekan kemarin</t>
+  </si>
+  <si>
+    <t>(dulu) saudaraku (lk) di mekah (sebelum) empat hari yg lalu</t>
+  </si>
+  <si>
+    <t>(dulu) murid-murid (pr) di dalam perpustakaan (sebelum sedikit) baru saja</t>
+  </si>
+  <si>
+    <t>(dulu) dokter-dokter (lk) di rumah sakit (sebelum) 1/3 jam yang lalu</t>
+  </si>
+  <si>
+    <t>bilal telah masuk (dalam) rumah sakit (sebelum) 3 hari yang lalu</t>
+  </si>
+  <si>
+    <t>anak-anak (lk) (telah) mendengar berita (tsb) dari radio kairo dan radio riyadh dan radio london</t>
+  </si>
+  <si>
+    <t>kitab(tsb) bersampul kuning</t>
+  </si>
+  <si>
+    <t>rumah kepala sekolah antara masjid (tsb) dan sekolah (tsb)</t>
+  </si>
+  <si>
+    <t>ibu (tsb) (telah) menemukan sapu (tsb)</t>
+  </si>
+  <si>
+    <t>telah turun dari mobil seorang pemuda yang pakaiannya bersih</t>
+  </si>
+  <si>
+    <t>kapan kalian (lk) keluar dari kelas ?</t>
+  </si>
+  <si>
+    <t>dimana kalian (lk) pergi setelah pelajaran ?</t>
+  </si>
+  <si>
+    <t>dari radio mana kalian (lk) mendengar berita ?</t>
+  </si>
+  <si>
+    <t>apakah kalian (lk/pr) telah memahami pelajaran yang baru wahai anak-anakku (lk/pr)</t>
+  </si>
+  <si>
+    <t>apakah kalian (lk/pr) telah membaca majalah (tsb) ini wahai para lelaki / wanita ?</t>
+  </si>
+  <si>
+    <t>apakah kalian (lk/pr) telah minum kopi (tsb) wahai saudaraku (lk/pr)</t>
+  </si>
+  <si>
+    <t>kapan kalian (lk/pr) telah keluar dari sekolah (tsb) wahai anak (lk/pr) ?</t>
+  </si>
+  <si>
+    <t>apakah kalian (lk/pr) telah melihat guru (tsb) yang baru wahai saudara-saudaraku (lk/pr) ?</t>
+  </si>
+  <si>
+    <t>apakah kalian (lk/pr) telah mendengar adzan (tsb) wahai saudara-sauadraku (lk/pr) ?</t>
   </si>
 </sst>
 </file>
@@ -243,12 +438,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,8 +464,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,15 +801,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D26F8-1865-41B3-B896-C0550BDC1135}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A59"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection sqref="A1:F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -643,11 +845,14 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -660,11 +865,14 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -677,11 +885,14 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -694,11 +905,14 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -711,11 +925,14 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -728,11 +945,14 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -745,11 +965,14 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -762,11 +985,14 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -779,11 +1005,14 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -796,11 +1025,14 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -813,11 +1045,14 @@
       <c r="D12">
         <v>0</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -830,11 +1065,14 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -847,11 +1085,14 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -871,7 +1112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -891,7 +1132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -911,7 +1152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -931,7 +1172,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -951,7 +1192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -971,7 +1212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -991,7 +1232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1011,7 +1252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1031,7 +1272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1051,7 +1292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1071,7 +1312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1091,7 +1332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1111,7 +1352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1131,7 +1372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1151,7 +1392,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1171,7 +1412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1191,7 +1432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1211,7 +1452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1231,7 +1472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1251,7 +1492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1271,7 +1512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1291,7 +1532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1311,7 +1552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1331,7 +1572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1351,7 +1592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1371,7 +1612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1391,7 +1632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1411,7 +1652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1431,7 +1672,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1451,7 +1692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1471,7 +1712,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1491,7 +1732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1511,7 +1752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1531,7 +1772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1551,7 +1792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1571,7 +1812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1591,7 +1832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1611,7 +1852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1631,7 +1872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1651,7 +1892,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1671,7 +1912,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1691,7 +1932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1711,7 +1952,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1731,7 +1972,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1749,6 +1990,1306 @@
       </c>
       <c r="F59" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>48</v>
+      </c>
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>48</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>52</v>
+      </c>
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>52</v>
+      </c>
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>52</v>
+      </c>
+      <c r="F64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>52</v>
+      </c>
+      <c r="F65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>52</v>
+      </c>
+      <c r="F66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>52</v>
+      </c>
+      <c r="F67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>52</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>52</v>
+      </c>
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>52</v>
+      </c>
+      <c r="F71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>51</v>
+      </c>
+      <c r="F72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>7</v>
+      </c>
+      <c r="E74">
+        <v>51</v>
+      </c>
+      <c r="F74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>51</v>
+      </c>
+      <c r="F76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>51</v>
+      </c>
+      <c r="F77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>51</v>
+      </c>
+      <c r="F78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>51</v>
+      </c>
+      <c r="F79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>51</v>
+      </c>
+      <c r="F80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <v>51</v>
+      </c>
+      <c r="F81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>51</v>
+      </c>
+      <c r="F82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>51</v>
+      </c>
+      <c r="F83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="E84">
+        <v>51</v>
+      </c>
+      <c r="F84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+      <c r="E85">
+        <v>51</v>
+      </c>
+      <c r="F85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>7</v>
+      </c>
+      <c r="E86">
+        <v>51</v>
+      </c>
+      <c r="F86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>51</v>
+      </c>
+      <c r="F87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>51</v>
+      </c>
+      <c r="F88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>51</v>
+      </c>
+      <c r="F89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <v>53</v>
+      </c>
+      <c r="F90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>53</v>
+      </c>
+      <c r="F91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>53</v>
+      </c>
+      <c r="F92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>53</v>
+      </c>
+      <c r="F93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>53</v>
+      </c>
+      <c r="F94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>53</v>
+      </c>
+      <c r="F95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>53</v>
+      </c>
+      <c r="F96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>50</v>
+      </c>
+      <c r="F97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>50</v>
+      </c>
+      <c r="F98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>50</v>
+      </c>
+      <c r="F99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>7</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>50</v>
+      </c>
+      <c r="F100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>50</v>
+      </c>
+      <c r="F101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>50</v>
+      </c>
+      <c r="F102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>50</v>
+      </c>
+      <c r="F103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>50</v>
+      </c>
+      <c r="F104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>50</v>
+      </c>
+      <c r="F105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>50</v>
+      </c>
+      <c r="F106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>50</v>
+      </c>
+      <c r="F107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>50</v>
+      </c>
+      <c r="F108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>50</v>
+      </c>
+      <c r="F109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>50</v>
+      </c>
+      <c r="F110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>49</v>
+      </c>
+      <c r="F111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>7</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>49</v>
+      </c>
+      <c r="F112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>49</v>
+      </c>
+      <c r="F113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>49</v>
+      </c>
+      <c r="F114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>49</v>
+      </c>
+      <c r="F115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116">
+        <v>49</v>
+      </c>
+      <c r="F116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>49</v>
+      </c>
+      <c r="F117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>49</v>
+      </c>
+      <c r="F118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>49</v>
+      </c>
+      <c r="F119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>49</v>
+      </c>
+      <c r="F120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>49</v>
+      </c>
+      <c r="F121" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>49</v>
+      </c>
+      <c r="F122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>49</v>
+      </c>
+      <c r="F123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>7</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>49</v>
+      </c>
+      <c r="F124" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data kalimat durusul lughoh 2.xlsx
+++ b/data kalimat durusul lughoh 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\trial\githurtfmplizio\rtfmpliz.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91EAB4-67CE-4962-8B1E-7369165E7E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF950DE6-B71C-4D4B-AB60-BF5381115BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="0" windowWidth="13185" windowHeight="10905" xr2:uid="{998D3561-EEEE-4E4F-800B-72A3D3D90E3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{998D3561-EEEE-4E4F-800B-72A3D3D90E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
@@ -423,6 +423,141 @@
   </si>
   <si>
     <t>apakah kalian (lk/pr) telah mendengar adzan (tsb) wahai saudara-sauadraku (lk/pr) ?</t>
+  </si>
+  <si>
+    <t>ini (adalah) rumah</t>
+  </si>
+  <si>
+    <t>ini  (adalah) masjid</t>
+  </si>
+  <si>
+    <t>ini  (adalah) pintu</t>
+  </si>
+  <si>
+    <t>ini  (adalah) buku</t>
+  </si>
+  <si>
+    <t>ini  (adalah) pena</t>
+  </si>
+  <si>
+    <t>ini  (adalah) kunci</t>
+  </si>
+  <si>
+    <t>ini  (adalah) meja</t>
+  </si>
+  <si>
+    <t>ini  (adalah) ranjang</t>
+  </si>
+  <si>
+    <t>ini  (adalah) kursi</t>
+  </si>
+  <si>
+    <t>apa ini</t>
+  </si>
+  <si>
+    <t>apakah ini rumah ?</t>
+  </si>
+  <si>
+    <t>ya, ini  (adalah) rumah</t>
+  </si>
+  <si>
+    <t>ini adalah baju</t>
+  </si>
+  <si>
+    <t>apakah ini ranjang ?</t>
+  </si>
+  <si>
+    <t>tidak, ini  (adalah) kursi</t>
+  </si>
+  <si>
+    <t>apakah ini kunci</t>
+  </si>
+  <si>
+    <t>tidak , ini  (adalah) pena</t>
+  </si>
+  <si>
+    <t>ini  (adalah) bintang</t>
+  </si>
+  <si>
+    <t>siapa ini ?</t>
+  </si>
+  <si>
+    <t>ini  (adalah) dokter</t>
+  </si>
+  <si>
+    <t>ini  (adalah) murid</t>
+  </si>
+  <si>
+    <t>ini  (adalah) anak laki-laki</t>
+  </si>
+  <si>
+    <t>ini  (adalah) laki-laki</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (adalah)</t>
+  </si>
+  <si>
+    <t>ini  (adalah) anjing</t>
+  </si>
+  <si>
+    <t>ini  (adalah) keledai</t>
+  </si>
+  <si>
+    <t>tidak, ini  (adalah) kucing</t>
+  </si>
+  <si>
+    <t>ini  (adalah) pedagang</t>
+  </si>
+  <si>
+    <t>apakah ini keledai ?</t>
+  </si>
+  <si>
+    <t>apakah ini anjing ?</t>
+  </si>
+  <si>
+    <t>tidak, ini  (adalah) kuda</t>
+  </si>
+  <si>
+    <t>dan apa ini ?</t>
+  </si>
+  <si>
+    <t>ini  (adalah) unta</t>
+  </si>
+  <si>
+    <t>ini  (adalah) ayam jago</t>
+  </si>
+  <si>
+    <t>ini  (adalah) guru</t>
+  </si>
+  <si>
+    <t>apakah ini baju ?</t>
+  </si>
+  <si>
+    <t>tidak, ini  (adalah) serbet</t>
+  </si>
+  <si>
+    <t>apa ini &gt; ini  (adalah) pena</t>
+  </si>
+  <si>
+    <t>siapa ini ? Ini  (adalah) dokter</t>
+  </si>
+  <si>
+    <t>apakah ini anjing ? Tidak, ini  (adalah) kucing</t>
+  </si>
+  <si>
+    <t>apakah ini ayam jago ? Ya</t>
+  </si>
+  <si>
+    <t>apakah ini kuda ? Tidak ini  (adalah) keledai</t>
+  </si>
+  <si>
+    <t>apakah ini anak laki-laki ? Ya</t>
+  </si>
+  <si>
+    <t>siapa ini ? Ini adalah laki-laki</t>
+  </si>
+  <si>
+    <t>apa itu ? Itu  (adalah) bintang</t>
   </si>
 </sst>
 </file>
@@ -801,10 +936,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D26F8-1865-41B3-B896-C0550BDC1135}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection sqref="A1:F124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="69" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2212,7 +2348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2232,7 +2368,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2252,7 +2388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2272,7 +2408,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2292,7 +2428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2312,7 +2448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2332,7 +2468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2352,7 +2488,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2372,7 +2508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2392,7 +2528,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2412,7 +2548,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2432,7 +2568,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2452,7 +2588,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2472,7 +2608,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2492,7 +2628,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2512,7 +2648,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2532,7 +2668,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2552,7 +2688,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2572,7 +2708,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2592,7 +2728,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2612,7 +2748,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2632,7 +2768,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2652,7 +2788,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2672,7 +2808,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2692,7 +2828,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2712,7 +2848,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2732,7 +2868,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2752,7 +2888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2772,7 +2908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2792,7 +2928,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2812,7 +2948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2832,7 +2968,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2852,7 +2988,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2872,7 +3008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2892,7 +3028,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2912,7 +3048,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2932,7 +3068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2952,7 +3088,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2972,7 +3108,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2992,7 +3128,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3012,7 +3148,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3032,7 +3168,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3052,7 +3188,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3072,7 +3208,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3092,7 +3228,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3112,7 +3248,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3132,7 +3268,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3152,7 +3288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3172,7 +3308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3192,7 +3328,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3212,7 +3348,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3232,7 +3368,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3252,7 +3388,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3272,7 +3408,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3290,6 +3426,883 @@
       </c>
       <c r="F124" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+      <c r="F133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>138</v>
+      </c>
+      <c r="G134" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>6</v>
+      </c>
+      <c r="F142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>10</v>
+      </c>
+      <c r="F152" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>11</v>
+      </c>
+      <c r="F157" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>11</v>
+      </c>
+      <c r="F159" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>11</v>
+      </c>
+      <c r="F162" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data kalimat durusul lughoh 2.xlsx
+++ b/data kalimat durusul lughoh 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\trial\githurtfmplizio\rtfmpliz.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF950DE6-B71C-4D4B-AB60-BF5381115BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155DBA7D-C733-4768-A63D-09DAAC4872F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{998D3561-EEEE-4E4F-800B-72A3D3D90E3C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>id</t>
   </si>
@@ -558,6 +558,63 @@
   </si>
   <si>
     <t>apa itu ? Itu  (adalah) bintang</t>
+  </si>
+  <si>
+    <t>bagaimana kabarmu wahai Ustadz ? Semoga kamu dalam keadaan baik</t>
+  </si>
+  <si>
+    <t>alhamdulillah, dan bagaimana kabarmu wahai hasyim, ? Saya mencintaimu dengan banyak wahai hasyim, sesungguhnya engkau adalah murid yang pandai dan rajin dan memiliki akhlaq yang baik. Apakah dari pakistan kamu atau dari india wahai hasyim ?</t>
+  </si>
+  <si>
+    <t>sesungguhnya aku dari india</t>
+  </si>
+  <si>
+    <t>dan temanku yang keluar bersamamu sekarang dari kelas, apakah dia juga dari india ?</t>
+  </si>
+  <si>
+    <t>tidak, sesungguhnya dia dari pakistan</t>
+  </si>
+  <si>
+    <t>sesungguhnya jam tangan mu indah wahai hasyim, apakah dari jepang dia (jam) ?</t>
+  </si>
+  <si>
+    <t>tidak, sesungguhnya dia (jam) dari india</t>
+  </si>
+  <si>
+    <t>apakah dia (jam) mahal atau murah ?</t>
+  </si>
+  <si>
+    <t>sesungguhnya dia (jam) murah sekali. Sesungguhnya dengan 100 rupiah saja</t>
+  </si>
+  <si>
+    <t>berapa saudara laki laki (milik) mu wahai hasyim ?</t>
+  </si>
+  <si>
+    <t>aku memiliki 3 saudara laki-laki</t>
+  </si>
+  <si>
+    <t>apakah murid-murid (mereka) ?</t>
+  </si>
+  <si>
+    <t>tida sesungguhnya mereka (lk) (adalah) para pedagang</t>
+  </si>
+  <si>
+    <t>dan berapa saudara (pr) milikmu ?</t>
+  </si>
+  <si>
+    <t>aku memiliki 4 saudara (pr)</t>
+  </si>
+  <si>
+    <t>apakah di india mereka (pr) sekarang ?</t>
+  </si>
+  <si>
+    <t>tidak, sesungguhnya mereka (pr) dengan (di) madinah munawaroh bersama bapakku dan ibuku</t>
+  </si>
+  <si>
+    <t>apakah murid-murid (mereka pr) ?</t>
+  </si>
+  <si>
+    <t>tidak, sesungguhnya mereka (pr) adalah guru-guru (pr) madrasah tsanawiyah</t>
   </si>
 </sst>
 </file>
@@ -936,11 +993,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D26F8-1865-41B3-B896-C0550BDC1135}">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="69" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G160" sqref="G160"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167:A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -988,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1008,7 +1065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1028,7 +1085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1048,7 +1105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1068,7 +1125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1088,7 +1145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1108,7 +1165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1128,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1148,7 +1205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1168,7 +1225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1188,7 +1245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1208,7 +1265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1228,7 +1285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1248,7 +1305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1268,7 +1325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1288,7 +1345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1308,7 +1365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1328,7 +1385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1348,7 +1405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1368,7 +1425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1388,7 +1445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1408,7 +1465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1428,7 +1485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1448,7 +1505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1468,7 +1525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1488,7 +1545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1508,7 +1565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1528,7 +1585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1548,7 +1605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1568,7 +1625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1588,7 +1645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1608,7 +1665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1628,7 +1685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1648,7 +1705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1668,7 +1725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1688,7 +1745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1708,7 +1765,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1728,7 +1785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1748,7 +1805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1768,7 +1825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1788,7 +1845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1808,7 +1865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1828,7 +1885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1848,7 +1905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1868,7 +1925,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1888,7 +1945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1908,7 +1965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1928,7 +1985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1948,7 +2005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1968,7 +2025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1988,7 +2045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2008,7 +2065,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2028,7 +2085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2048,7 +2105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2068,7 +2125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2088,7 +2145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2108,7 +2165,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2128,7 +2185,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2148,7 +2205,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2168,7 +2225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2188,7 +2245,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2208,7 +2265,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2228,7 +2285,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2248,7 +2305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2268,7 +2325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2288,7 +2345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2308,7 +2365,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2328,7 +2385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2348,7 +2405,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2368,7 +2425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2388,7 +2445,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2408,7 +2465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2428,7 +2485,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2448,7 +2505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2468,7 +2525,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2488,7 +2545,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2508,7 +2565,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2528,7 +2585,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2548,7 +2605,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2568,7 +2625,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2588,7 +2645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2608,7 +2665,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2628,7 +2685,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2648,7 +2705,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2668,7 +2725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2688,7 +2745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2708,7 +2765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2728,7 +2785,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2748,7 +2805,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2768,7 +2825,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2788,7 +2845,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2808,7 +2865,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2828,7 +2885,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2848,7 +2905,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2868,7 +2925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2888,7 +2945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2908,7 +2965,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2928,7 +2985,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2948,7 +3005,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2968,7 +3025,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2988,7 +3045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3008,7 +3065,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3028,7 +3085,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3048,7 +3105,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3068,7 +3125,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3088,7 +3145,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3108,7 +3165,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3128,7 +3185,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3148,7 +3205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3168,7 +3225,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3188,7 +3245,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3208,7 +3265,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3228,7 +3285,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3248,7 +3305,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3268,7 +3325,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3288,7 +3345,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3308,7 +3365,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3328,7 +3385,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3348,7 +3405,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3368,7 +3425,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3388,7 +3445,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3408,7 +3465,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4295,14 +4352,400 @@
       <c r="A168">
         <v>167</v>
       </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
       <c r="C168">
         <v>2</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
       </c>
       <c r="E168">
         <v>11</v>
       </c>
       <c r="F168" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+      <c r="F171" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>5</v>
+      </c>
+      <c r="F172" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+      <c r="F178" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>6</v>
+      </c>
+      <c r="F180" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>6</v>
+      </c>
+      <c r="F181" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>6</v>
+      </c>
+      <c r="F182" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>6</v>
+      </c>
+      <c r="F183" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>6</v>
+      </c>
+      <c r="F184" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="F185" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+      <c r="F186" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data kalimat durusul lughoh 2.xlsx
+++ b/data kalimat durusul lughoh 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\trial\githurtfmplizio\rtfmpliz.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155DBA7D-C733-4768-A63D-09DAAC4872F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D26455-D475-4520-9EA8-5A616421E960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{998D3561-EEEE-4E4F-800B-72A3D3D90E3C}"/>
+    <workbookView xWindow="8835" yWindow="0" windowWidth="11760" windowHeight="10905" xr2:uid="{998D3561-EEEE-4E4F-800B-72A3D3D90E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>id</t>
   </si>
@@ -615,6 +615,204 @@
   </si>
   <si>
     <t>tidak, sesungguhnya mereka (pr) adalah guru-guru (pr) madrasah tsanawiyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dari mana hasyim ? Dia dari india </t>
+  </si>
+  <si>
+    <t>apakah guru (tsb) mencintainya ? Ya, dia (guru tsb) mencintainya</t>
+  </si>
+  <si>
+    <t>dari mana jam tangannya ? Jamnya (lk) dari india</t>
+  </si>
+  <si>
+    <t>berapa harga dia (jam tangan) ?  dia (jam tangan) (dengan) 100 rupiah</t>
+  </si>
+  <si>
+    <t>berapa saudara perempuan (milik) nya ? Dia memiliki (Miliknya ) 4 saudara perempuan</t>
+  </si>
+  <si>
+    <t>berapa saudara laki laki (milik)nya ? Dia memiliki (Miliknya)  3 saudara laki-laki</t>
+  </si>
+  <si>
+    <t>dimana saudara-saudara perempuannya ? Mereka (pr) di madinah munawaroh</t>
+  </si>
+  <si>
+    <t>hasyim adalah murid yang malas - hasyim adalah murid yang rajin</t>
+  </si>
+  <si>
+    <t>sam tangannya murah - jam tangannya mahal</t>
+  </si>
+  <si>
+    <t>jam tangannya (dengan) 1000 rupiah - jam tangannya (dengan) 100 rupiah</t>
+  </si>
+  <si>
+    <t>saudara-saudara perempuannya (dengan) di madinah munawaroh - saudara-saudara perempuannya di (dengan) india</t>
+  </si>
+  <si>
+    <t>saya  (adalah) murid - sesungguhnya saya  (adalah) murid</t>
+  </si>
+  <si>
+    <t>kalian (lk)  (adalah) pandai - sesungguhnya kalian (lk) (adalah) pandai</t>
+  </si>
+  <si>
+    <t>dia (lk)  (adalah) sudah menikah -  sesungguhnya dia (lk)  (adalah) sudah menikah</t>
+  </si>
+  <si>
+    <t>dia (lk) (adalah) pedagang - sesungguhya dia  (adalah) pedagan</t>
+  </si>
+  <si>
+    <t>mereka (lk) dari jepang - sesungguhnya mereka dari jepang</t>
+  </si>
+  <si>
+    <t>kalian (pr) (adalah) rajin - sesungguhnya kalian (adalah) rajin</t>
+  </si>
+  <si>
+    <t>mereka (pr) adalah muslimah - sesungguhnya mereka (pr) adalah muslimah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kamu (lk) (adalah) laki-laki yang kaya - sesungguhnya kamu (lk) (adalah) laki-laki yang kaya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kamu (pr) (adalah) rajin (pr) - sesungguh nya kamu (pr) (adalah) rajin (pr) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">guru (tsb) (adalah) baru - sesungguhnya guru (tsb) (adalah) baru - </t>
+  </si>
+  <si>
+    <t>fatimah (adalah) dokter - sesungguhnya fatimah (adalah) dokter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamid (adalah) sudah menikah - sesungguhnya hamid (adalah) sudah menikah </t>
+  </si>
+  <si>
+    <t>pelajaran (tsb) sulit - sesungguhnya pelajaran (tsb) sulit</t>
+  </si>
+  <si>
+    <t>mobil (tsb) bagus - sesungguhnya mobil (tsb) bagus</t>
+  </si>
+  <si>
+    <t>alquran (adalah) kitab Allah - sesungguhnya alquran (adalah) kitab Allah</t>
+  </si>
+  <si>
+    <t>Muhammad ﷺ(adalah) rasululloh - sesungguhnya Muhammad ﷺ(adalah) rasululloh</t>
+  </si>
+  <si>
+    <t>aminah (adalah) murid - sesungguhnya aminah (adalah) murid</t>
+  </si>
+  <si>
+    <t>bahasa (yang) arab (adalah) mudah - sesungguhnya bahasa (yang)  arab (adalah) mudah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jam tangan ini mahal  - sesungguhnya jam tangan ini mahal </t>
+  </si>
+  <si>
+    <t>bilal (adalah) orang kaya - sesungguhnya bilal (adalah) orang kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kepala sekolah (lk) (tsb) di dalam kelas - sesungguhnya kepala sekolah (tsb) di dalam kelas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">air (tsb) dingin - sesungguhnya air (tsb) dingin </t>
+  </si>
+  <si>
+    <t>apakah dokter kamu (pr) atau pasien (orang sakit) ?</t>
+  </si>
+  <si>
+    <t>apakah dari cina dia (lk) atau dari jepang</t>
+  </si>
+  <si>
+    <t>apakah dari india kamu (lk) atau dari pakistan ?</t>
+  </si>
+  <si>
+    <t>apakah seorang dokter, kamu (lk), atau seorang insinyur ?</t>
+  </si>
+  <si>
+    <t>apakah rajin kamu (lk) atau malas ?</t>
+  </si>
+  <si>
+    <t>apakah nasrani mereka (lk) atau yahudi ?</t>
+  </si>
+  <si>
+    <t>apakah masjid, ini, atau sekolah</t>
+  </si>
+  <si>
+    <t>apakah mobil kepala sekolah (lk) ini atau mobil (guru)</t>
+  </si>
+  <si>
+    <t>apakah sudah menikah kamu (lk) , atau single ?</t>
+  </si>
+  <si>
+    <t>apakah bibi (dari ibu) mereka atau bibi (dari ayah)</t>
+  </si>
+  <si>
+    <t>apakah dari pakistan dia (lk) atau dari iran ?</t>
+  </si>
+  <si>
+    <t>apakah dekat rumahmu atau jauh ?</t>
+  </si>
+  <si>
+    <t>kepala sekolah kami memiliki jenggot yang panjang</t>
+  </si>
+  <si>
+    <t>buku tulis ini memiliki kertas yang bergaris</t>
+  </si>
+  <si>
+    <t>ahmad (adalah) murid yang memiliki akhlaq yang baik</t>
+  </si>
+  <si>
+    <t>baju ini memiliki kantong yang kecil dan ini memilki kantong yang panjang</t>
+  </si>
+  <si>
+    <t>masjid (tsb) yang di dalam kampung memiliki 1 menara</t>
+  </si>
+  <si>
+    <t>murid laki-laki ini memiliki akhlaq  - murid-murid laki-laki ini memiliki akhlaq - murid perempuan ini memiliki akhlaq - murid-murid perempuan ini memiliki akhlaq</t>
+  </si>
+  <si>
+    <t>laki-laki ini kemiliki harta yang banyak - para laki-laki ini kemiliki harta yang banyak - wanita ini memiliki harta yang banyak - para wanita ini memiliki harta yang banyak</t>
+  </si>
+  <si>
+    <t>semoga dia (dengan) baik</t>
+  </si>
+  <si>
+    <t>pena ini (adalah) mahal</t>
+  </si>
+  <si>
+    <t>jam tangan ini mahal</t>
+  </si>
+  <si>
+    <t>kitab-kitab (tsb) (yg) (berbahasa)  arab mahal di negara kami</t>
+  </si>
+  <si>
+    <t>kitab ini murah dan itu mahal</t>
+  </si>
+  <si>
+    <t>kamus ini (dengan) 100 riyal. Dia mahal</t>
+  </si>
+  <si>
+    <t>tas ini mahal</t>
+  </si>
+  <si>
+    <t>100 laki laki /  100 perempuan</t>
+  </si>
+  <si>
+    <t>1000 laik-laki / 1000 perempuan</t>
+  </si>
+  <si>
+    <t>TV ini 1000 riyal</t>
+  </si>
+  <si>
+    <t>aku memiliki (bersamaku) 1000 dollar</t>
+  </si>
+  <si>
+    <t>di kitab ini 100 lembar</t>
+  </si>
+  <si>
+    <t>(dengan) berapa harga tas ini ? Dia 100 riyal</t>
+  </si>
+  <si>
+    <t>di kuliah ini 100 murid dari pakistan dan 1000 murid dari indonesia</t>
   </si>
 </sst>
 </file>
@@ -656,14 +854,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -993,11 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1D26F8-1865-41B3-B896-C0550BDC1135}">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A167" sqref="A167:A187"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F254" sqref="F254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,26 +1231,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1045,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1065,7 +1290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1085,7 +1310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1105,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1125,7 +1350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1145,7 +1370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1165,7 +1390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1185,7 +1410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1205,7 +1430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1225,7 +1450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1245,7 +1470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1265,7 +1490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1285,7 +1510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1305,7 +1530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1325,7 +1550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1345,7 +1570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1365,7 +1590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1385,7 +1610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1405,7 +1630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1425,7 +1650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1445,7 +1670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1465,7 +1690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1485,7 +1710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1505,7 +1730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1525,7 +1750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1545,7 +1770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1565,7 +1790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1585,7 +1810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1605,7 +1830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1625,7 +1850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1645,7 +1870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1665,7 +1890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1685,7 +1910,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1705,7 +1930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1725,7 +1950,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1745,7 +1970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1765,7 +1990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1785,7 +2010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1805,7 +2030,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1825,7 +2050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1845,7 +2070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1865,7 +2090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1885,7 +2110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1905,7 +2130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1925,7 +2150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1945,7 +2170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1965,7 +2190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1985,7 +2210,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2005,7 +2230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2025,7 +2250,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2045,7 +2270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2065,7 +2290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2085,7 +2310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2105,7 +2330,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2125,7 +2350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2145,7 +2370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2165,7 +2390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2185,7 +2410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2205,7 +2430,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2225,7 +2450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2245,7 +2470,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2265,7 +2490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2285,7 +2510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2305,7 +2530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2325,7 +2550,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2345,7 +2570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2365,7 +2590,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2385,7 +2610,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2405,7 +2630,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2425,7 +2650,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2445,7 +2670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2465,7 +2690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2485,7 +2710,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2505,7 +2730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2525,7 +2750,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2545,7 +2770,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2565,7 +2790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2585,7 +2810,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2605,7 +2830,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2625,7 +2850,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2645,7 +2870,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2665,7 +2890,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2685,7 +2910,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2705,7 +2930,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2725,7 +2950,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2745,7 +2970,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2765,7 +2990,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2785,7 +3010,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2805,7 +3030,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2825,7 +3050,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2845,7 +3070,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2865,7 +3090,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2885,7 +3110,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2905,7 +3130,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2925,7 +3150,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2945,7 +3170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2965,7 +3190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2985,7 +3210,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3005,7 +3230,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3025,7 +3250,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3045,7 +3270,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3065,7 +3290,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3085,7 +3310,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3105,7 +3330,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3125,7 +3350,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3145,7 +3370,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3165,7 +3390,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3185,7 +3410,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3205,7 +3430,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3225,7 +3450,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3245,7 +3470,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3265,7 +3490,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3285,7 +3510,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3305,7 +3530,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3325,7 +3550,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3345,7 +3570,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3365,7 +3590,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3385,7 +3610,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3405,7 +3630,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3425,7 +3650,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3445,7 +3670,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3465,7 +3690,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3485,7 +3710,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3505,7 +3730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3525,7 +3750,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3545,7 +3770,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3565,7 +3790,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3585,7 +3810,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3605,7 +3830,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3625,7 +3850,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3645,7 +3870,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3665,7 +3890,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3688,7 +3913,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3708,7 +3933,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3728,7 +3953,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3748,7 +3973,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3768,7 +3993,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3788,7 +4013,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3808,7 +4033,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3828,7 +4053,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3848,7 +4073,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3868,7 +4093,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3888,7 +4113,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3908,7 +4133,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3928,7 +4153,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3948,7 +4173,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3968,7 +4193,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3988,7 +4213,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4008,7 +4233,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4028,7 +4253,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4048,7 +4273,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4068,7 +4293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4088,7 +4313,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4108,7 +4333,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4128,7 +4353,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4148,7 +4373,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4168,7 +4393,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4188,7 +4413,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4208,7 +4433,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4228,7 +4453,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4248,7 +4473,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4268,7 +4493,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4288,7 +4513,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4308,7 +4533,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4328,7 +4553,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4349,26 +4574,26 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
+      <c r="B168" s="1">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1">
         <v>11</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4388,7 +4613,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4408,7 +4633,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4428,7 +4653,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4448,7 +4673,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4468,7 +4693,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4488,7 +4713,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4508,7 +4733,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4528,7 +4753,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4548,7 +4773,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4568,7 +4793,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4588,7 +4813,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4608,7 +4833,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4628,7 +4853,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4648,107 +4873,818 @@
         <v>187</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183">
-        <v>2</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
+      <c r="B183" s="2">
+        <v>2</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="2">
         <v>6</v>
       </c>
       <c r="F183" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184">
-        <v>2</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
+      <c r="B184" s="2">
+        <v>2</v>
+      </c>
+      <c r="C184" s="2">
+        <v>1</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="2">
         <v>6</v>
       </c>
       <c r="F184" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185">
-        <v>2</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
+      <c r="B185" s="2">
+        <v>2</v>
+      </c>
+      <c r="C185" s="2">
+        <v>1</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="2">
         <v>6</v>
       </c>
       <c r="F185" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186">
-        <v>2</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
+      <c r="B186" s="2">
+        <v>2</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0</v>
+      </c>
+      <c r="E186" s="2">
         <v>6</v>
       </c>
       <c r="F186" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187">
-        <v>2</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187">
+      <c r="B187" s="2">
+        <v>2</v>
+      </c>
+      <c r="C187" s="2">
+        <v>1</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0</v>
+      </c>
+      <c r="E187" s="2">
         <v>6</v>
       </c>
       <c r="F187" t="s">
         <v>192</v>
       </c>
     </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2">
+        <v>2</v>
+      </c>
+      <c r="C188" s="2">
+        <v>1</v>
+      </c>
+      <c r="D188" s="2">
+        <v>1</v>
+      </c>
+      <c r="E188" s="2">
+        <v>6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2">
+        <v>2</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1</v>
+      </c>
+      <c r="D189" s="2">
+        <v>1</v>
+      </c>
+      <c r="E189" s="2">
+        <v>6</v>
+      </c>
+      <c r="F189" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2">
+        <v>2</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1</v>
+      </c>
+      <c r="D190" s="2">
+        <v>1</v>
+      </c>
+      <c r="E190" s="2">
+        <v>6</v>
+      </c>
+      <c r="F190" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2">
+        <v>2</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1</v>
+      </c>
+      <c r="D191" s="2">
+        <v>1</v>
+      </c>
+      <c r="E191" s="2">
+        <v>6</v>
+      </c>
+      <c r="F191" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2">
+        <v>2</v>
+      </c>
+      <c r="C192" s="2">
+        <v>1</v>
+      </c>
+      <c r="D192" s="2">
+        <v>1</v>
+      </c>
+      <c r="E192" s="2">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2">
+        <v>2</v>
+      </c>
+      <c r="C193" s="2">
+        <v>1</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1</v>
+      </c>
+      <c r="E193" s="2">
+        <v>6</v>
+      </c>
+      <c r="F193" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2">
+        <v>2</v>
+      </c>
+      <c r="C194" s="2">
+        <v>1</v>
+      </c>
+      <c r="D194" s="2">
+        <v>1</v>
+      </c>
+      <c r="E194" s="2">
+        <v>6</v>
+      </c>
+      <c r="F194" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2">
+        <v>2</v>
+      </c>
+      <c r="C195" s="2">
+        <v>1</v>
+      </c>
+      <c r="D195" s="2">
+        <v>2</v>
+      </c>
+      <c r="E195" s="2">
+        <v>7</v>
+      </c>
+      <c r="F195" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2">
+        <v>2</v>
+      </c>
+      <c r="C196" s="2">
+        <v>1</v>
+      </c>
+      <c r="D196" s="2">
+        <v>2</v>
+      </c>
+      <c r="E196" s="2">
+        <v>7</v>
+      </c>
+      <c r="F196" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2">
+        <v>2</v>
+      </c>
+      <c r="C197" s="2">
+        <v>1</v>
+      </c>
+      <c r="D197" s="2">
+        <v>2</v>
+      </c>
+      <c r="E197" s="2">
+        <v>7</v>
+      </c>
+      <c r="F197" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2">
+        <v>2</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1</v>
+      </c>
+      <c r="D198" s="2">
+        <v>2</v>
+      </c>
+      <c r="E198" s="2">
+        <v>7</v>
+      </c>
+      <c r="F198" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2">
+        <v>2</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>4</v>
+      </c>
+      <c r="E199" s="2">
+        <v>7</v>
+      </c>
+      <c r="F199" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2">
+        <v>2</v>
+      </c>
+      <c r="C200" s="2">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>4</v>
+      </c>
+      <c r="E200" s="2">
+        <v>7</v>
+      </c>
+      <c r="F200" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2">
+        <v>2</v>
+      </c>
+      <c r="C201" s="2">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>4</v>
+      </c>
+      <c r="E201" s="2">
+        <v>7</v>
+      </c>
+      <c r="F201" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2">
+        <v>2</v>
+      </c>
+      <c r="C202" s="2">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2">
+        <v>7</v>
+      </c>
+      <c r="F202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2">
+        <v>2</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>4</v>
+      </c>
+      <c r="E203" s="2">
+        <v>7</v>
+      </c>
+      <c r="F203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2">
+        <v>2</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>4</v>
+      </c>
+      <c r="E204" s="2">
+        <v>7</v>
+      </c>
+      <c r="F204" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2">
+        <v>2</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205" s="2">
+        <v>7</v>
+      </c>
+      <c r="F205" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2</v>
+      </c>
+      <c r="C206" s="2">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>4</v>
+      </c>
+      <c r="E206" s="2">
+        <v>7</v>
+      </c>
+      <c r="F206" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2">
+        <v>2</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207" s="2">
+        <v>7</v>
+      </c>
+      <c r="F207" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2">
+        <v>2</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>5</v>
+      </c>
+      <c r="E208" s="2">
+        <v>8</v>
+      </c>
+      <c r="F208" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2">
+        <v>2</v>
+      </c>
+      <c r="C209" s="2">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>5</v>
+      </c>
+      <c r="E209" s="2">
+        <v>8</v>
+      </c>
+      <c r="F209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2">
+        <v>2</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210" s="2">
+        <v>8</v>
+      </c>
+      <c r="F210" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>6</v>
+      </c>
+      <c r="F211" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F212" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F213" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F216" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F217" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F218" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F219" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F220" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>7</v>
+      </c>
+      <c r="F221" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F223" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>9</v>
+      </c>
+      <c r="F225" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F226" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F227" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F229" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F230" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F231" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F232" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>8</v>
+      </c>
+      <c r="F233" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F234" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F235" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F236" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F237" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>9</v>
+      </c>
+      <c r="F238" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F239" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>10</v>
+      </c>
+      <c r="E240">
+        <v>10</v>
+      </c>
+      <c r="F240" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>11</v>
+      </c>
+      <c r="F241" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F243" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F244" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F245" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F246" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>12</v>
+      </c>
+      <c r="F247" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>11</v>
+      </c>
+      <c r="F248" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F249" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F250" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F251" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F252" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F253" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F253">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A210">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>